--- a/src/main/resources/xlsx/cis/cis_inspector_obj.xlsx
+++ b/src/main/resources/xlsx/cis/cis_inspector_obj.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE8CB92-76CD-4037-A1D7-99DC81C8DE40}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B6A688-7EE5-45F2-A030-78609FC566D1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,9 +337,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -377,6 +374,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,7 +667,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -688,34 +688,34 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -723,16 +723,16 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -758,7 +758,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -779,34 +779,34 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -814,25 +814,25 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
